--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CX 4010\4010h2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Dropbox\CX 4010\4010h2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -698,7 +698,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
@@ -2261,13 +2261,13 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9000</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11000</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12000</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13000</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14000</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15000</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16000</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17000</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18000</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19000</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20000</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21000</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22000</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23000</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24000</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25000</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26000</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27000</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28000</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29000</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30000</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31000</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32000</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33000</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34000</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35000</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36000</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37000</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38000</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39000</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40000</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41000</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42000</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43000</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44000</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45000</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46000</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47000</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48000</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49000</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50000</v>
       </c>
